--- a/Interim_Analysis/data/MRB.Interim analysis data file.xlsx
+++ b/Interim_Analysis/data/MRB.Interim analysis data file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bayergroup-my.sharepoint.com/personal/jeffrey_berry_bayer_com/Documents/Personal Data/GitHub/mrb-projects/Interim_Analysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrberry2\Box\PI - Research Mentoring\ACTIVE Projects\CID - Metronidazole\Metronidazole-Placebo CID Trial\MRB document organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{BDE6B24B-9227-4CE9-A0C1-2D3B9FBA37DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07AC6926-7901-B745-A1F7-55DF850BEEA7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C43D15-9906-43E5-A617-F084C0267FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="3160" windowWidth="26940" windowHeight="15840" activeTab="1" xr2:uid="{0C97DB8E-A835-4B03-AD16-C958B8B8D7CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0C97DB8E-A835-4B03-AD16-C958B8B8D7CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -581,17 +581,17 @@
       <selection sqref="A1:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
@@ -611,7 +611,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -631,7 +631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -651,7 +651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -671,7 +671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -691,7 +691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -711,7 +711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -731,7 +731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -751,7 +751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -771,7 +771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -791,7 +791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -811,7 +811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -831,7 +831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -851,7 +851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -871,7 +871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -891,7 +891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -911,7 +911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -931,7 +931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -951,7 +951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -971,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1247,12 +1247,12 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>39</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1492,27 +1492,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13">
+        <v>38</v>
+      </c>
+      <c r="E13">
         <v>86</v>
       </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>95</v>
-      </c>
       <c r="F13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1532,7 +1526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1552,7 +1546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1572,7 +1566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1592,7 +1586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1612,7 +1606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1632,7 +1626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1652,7 +1646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1672,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1692,7 +1686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1712,7 +1706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1732,7 +1726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1752,7 +1746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1772,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1792,7 +1786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -1812,7 +1806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1832,7 +1826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1852,7 +1846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1872,7 +1866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
